--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_9.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_9.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>242852.1371432057</v>
+        <v>222828.7510725867</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5117489.517676648</v>
+        <v>5413711.842050619</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22435683.45493321</v>
+        <v>22726010.95505212</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4042435.253264229</v>
+        <v>3915832.239858635</v>
       </c>
     </row>
     <row r="11">
@@ -2078,10 +2078,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2208,16 +2208,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2248,22 +2248,22 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2968606583479628</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2321,13 +2321,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2397,19 +2397,19 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2482,13 +2482,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>22.56635248423081</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2609,16 +2609,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2679,13 +2679,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2700,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2737,7 +2737,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -2767,16 +2767,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0.2968606583479628</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2807,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2846,16 +2846,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2868,16 +2868,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>21.81976115797297</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2992,16 +2992,16 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>22.56635248423082</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3089,13 +3089,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3162,16 +3162,16 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -3247,13 +3247,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>19.8449117491243</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3269,10 +3269,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3396,19 +3396,19 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3430,13 +3430,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>22.56635248423082</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3500,10 +3500,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3591,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>22.56635248423082</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3743,13 +3743,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>12.57565326968602</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3800,13 +3800,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3873,16 +3873,16 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3949,13 +3949,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>51.75298821315428</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>51.75298821315428</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>26.38889993046976</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>26.38889993046976</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>51.75298821315428</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>79.68686933990632</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>53.80778732512771</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>102.1813055276668</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>76.30222351288816</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>76.30222351288816</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>50.42314149810954</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>24.54405948333093</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>78.14188814362403</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>79.68686933990632</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>79.68686933990632</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>53.80778732512771</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>79.68686933990632</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>79.68686933990632</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>79.68686933990632</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>79.68686933990632</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>79.68686933990632</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>79.68686933990632</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>79.68686933990632</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>79.68686933990632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>53.80778732512771</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>51.75298821315428</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>76.60208276374469</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>76.60208276374469</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>76.60208276374469</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>53.80778732512771</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>78.14188814362403</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>76.60208276374469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>51.75298821315428</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>26.38889993046976</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>51.75298821315428</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.54405948333093</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>24.54405948333093</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>24.54405948333093</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>24.54405948333093</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>24.54405948333093</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>24.54405948333093</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>24.54405948333093</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>24.54405948333093</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>24.54405948333093</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>78.14188814362403</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>102.1813055276668</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>76.30222351288816</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>50.42314149810954</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>24.54405948333093</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.54405948333093</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>79.68686933990632</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>79.68686933990632</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>53.80778732512771</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>80.44100199269204</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>54.56191997791342</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>28.6828379631348</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>2.80375594835618</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>2.80375594835618</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.80375594835618</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>2.80375594835618</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>2.80375594835618</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>26.38889993046976</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>51.75298821315428</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>78.14188814362403</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>76.60208276374469</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>50.72300074896607</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.84391873418745</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>26.38889993046976</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>26.38889993046976</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>26.38889993046976</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>51.75298821315428</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>78.14188814362403</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>99.73223474306218</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>99.73223474306218</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>99.73223474306218</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>99.73223474306218</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>99.73223474306218</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>99.73223474306218</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>99.73223474306218</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>79.68686933990632</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>53.80778732512771</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>26.38889993046976</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>51.75298821315428</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>78.14188814362403</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>53.80778732512771</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>76.60208276374469</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>76.60208276374469</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>76.60208276374469</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>50.72300074896607</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.84391873418745</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>78.14188814362403</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>76.60208276374469</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>76.60208276374469</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>76.60208276374469</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>76.60208276374469</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>76.60208276374469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>78.14188814362403</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.84391873418745</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>78.14188814362403</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>76.60208276374469</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>76.60208276374469</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>76.60208276374469</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>76.60208276374469</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>50.72300074896607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>40.631385380739</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>40.631385380739</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>14.75230336596039</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>14.75230336596039</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>26.38889993046976</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>51.75298821315428</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>92.38954941029624</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>92.38954941029624</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>92.38954941029624</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>92.38954941029624</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>92.38954941029624</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>92.38954941029624</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>66.51046739551762</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>66.51046739551762</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>40.631385380739</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>26.38889993046976</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>51.75298821315428</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>79.68686933990632</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>79.68686933990632</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>79.68686933990632</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>53.80778732512771</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>53.80778732512771</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>78.14188814362404</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -9401,19 +9401,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>245.7101422396114</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L20" t="n">
-        <v>260.3515428840269</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M20" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N20" t="n">
-        <v>255.0333547912217</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O20" t="n">
-        <v>255.7185026163176</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P20" t="n">
         <v>231.2329957552695</v>
@@ -9483,19 +9483,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>163.1395076939139</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>156.9620032779641</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>168.2165356390753</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>159.5946986089611</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9562,16 +9562,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L22" t="n">
-        <v>160.5049674758691</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M22" t="n">
-        <v>164.5460751422359</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N22" t="n">
-        <v>153.305835659864</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O22" t="n">
-        <v>163.0416663658825</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P22" t="n">
         <v>135.0065633140411</v>
@@ -9638,19 +9638,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>245.7101422396114</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L23" t="n">
-        <v>261.3867061646181</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M23" t="n">
-        <v>254.9313611413124</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N23" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O23" t="n">
-        <v>255.7185026163176</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P23" t="n">
         <v>231.2329957552695</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>163.4617301689898</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
@@ -9726,13 +9726,13 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>155.926839997373</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>168.2165356390753</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>159.5946986089611</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9799,16 +9799,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L25" t="n">
-        <v>160.5049674758691</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M25" t="n">
-        <v>164.5460751422359</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N25" t="n">
-        <v>153.305835659864</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O25" t="n">
-        <v>163.0416663658825</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P25" t="n">
         <v>135.0065633140411</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>245.7101422396114</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L26" t="n">
         <v>235.7664149699872</v>
@@ -9884,13 +9884,13 @@
         <v>230.3462332272727</v>
       </c>
       <c r="N26" t="n">
-        <v>253.9981915106306</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O26" t="n">
-        <v>255.7185026163176</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P26" t="n">
-        <v>256.8532869499004</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9954,16 +9954,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>162.4265668883987</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>164.174670974505</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>167.7543251166491</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>156.9620032779641</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>142.5962444444444</v>
@@ -10036,16 +10036,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L28" t="n">
-        <v>160.5049674758691</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M28" t="n">
-        <v>164.5460751422359</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N28" t="n">
-        <v>153.305835659864</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O28" t="n">
-        <v>163.0416663658825</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P28" t="n">
         <v>135.0065633140411</v>
@@ -10112,13 +10112,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>245.7101422396114</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L29" t="n">
-        <v>261.3867061646181</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M29" t="n">
-        <v>254.9313611413124</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N29" t="n">
         <v>229.4130635965909</v>
@@ -10127,7 +10127,7 @@
         <v>230.0982114216867</v>
       </c>
       <c r="P29" t="n">
-        <v>256.8532869499004</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10200,16 +10200,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>155.926839997373</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>168.2165356390753</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>159.5946986089611</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>165.6020652806523</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10273,16 +10273,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
-        <v>160.5049674758691</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M31" t="n">
-        <v>164.5460751422359</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N31" t="n">
-        <v>153.305835659864</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O31" t="n">
-        <v>163.0416663658825</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P31" t="n">
         <v>135.0065633140411</v>
@@ -10352,16 +10352,16 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L32" t="n">
-        <v>261.3867061646181</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M32" t="n">
-        <v>255.9665244219036</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N32" t="n">
-        <v>253.9981915106306</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O32" t="n">
-        <v>255.7185026163176</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P32" t="n">
         <v>231.2329957552695</v>
@@ -10431,7 +10431,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>163.1395076939139</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>142.1340339220183</v>
@@ -10440,13 +10440,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>168.2165356390753</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>159.5946986089611</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>165.6020652806523</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10510,16 +10510,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
-        <v>160.5049674758691</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M34" t="n">
-        <v>164.5460751422359</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N34" t="n">
-        <v>153.305835659864</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O34" t="n">
-        <v>163.0416663658825</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P34" t="n">
         <v>135.0065633140411</v>
@@ -10592,16 +10592,16 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M35" t="n">
-        <v>254.9313611413124</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N35" t="n">
-        <v>255.0333547912217</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O35" t="n">
-        <v>255.7185026163176</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P35" t="n">
-        <v>256.8532869499004</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10665,16 +10665,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>163.4617301689898</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>164.174670974505</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>167.7543251166491</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>155.926839997373</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>142.5962444444444</v>
@@ -10747,16 +10747,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L37" t="n">
-        <v>160.5049674758691</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M37" t="n">
-        <v>164.5460751422359</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N37" t="n">
-        <v>153.305835659864</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O37" t="n">
-        <v>163.0416663658825</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P37" t="n">
         <v>135.0065633140411</v>
@@ -10826,16 +10826,16 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L38" t="n">
-        <v>261.3867061646181</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M38" t="n">
-        <v>255.9665244219036</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N38" t="n">
-        <v>255.0333547912217</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O38" t="n">
-        <v>254.6833393357264</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P38" t="n">
         <v>231.2329957552695</v>
@@ -10905,16 +10905,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>164.174670974505</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>167.7543251166491</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>155.926839997373</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>168.2165356390753</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -10984,16 +10984,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L40" t="n">
-        <v>160.5049674758691</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M40" t="n">
-        <v>164.5460751422359</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N40" t="n">
-        <v>153.305835659864</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O40" t="n">
-        <v>163.0416663658825</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P40" t="n">
         <v>135.0065633140411</v>
@@ -11063,16 +11063,16 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
-        <v>260.3515428840269</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M41" t="n">
-        <v>255.9665244219036</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N41" t="n">
-        <v>255.0333547912217</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O41" t="n">
-        <v>255.7185026163176</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P41" t="n">
         <v>231.2329957552695</v>
@@ -11139,16 +11139,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>162.4265668883987</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>164.174670974505</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>167.7543251166491</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>156.9620032779641</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>142.5962444444444</v>
@@ -11221,16 +11221,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L43" t="n">
-        <v>160.5049674758691</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M43" t="n">
-        <v>164.5460751422359</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N43" t="n">
-        <v>153.305835659864</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O43" t="n">
-        <v>163.0416663658825</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P43" t="n">
         <v>135.0065633140411</v>
@@ -23966,10 +23966,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>357.1135504688497</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>342.7065392867767</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -24029,13 +24029,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>323.6206775227822</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>360.6176474614227</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24096,16 +24096,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>149.116818619607</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>174.5444375001908</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>200.321090886344</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>207.1802959547944</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -24136,22 +24136,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.1241873645833</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>142.3706881638279</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H22" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I22" t="n">
-        <v>129.8301837326275</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J22" t="n">
-        <v>67.73888892204195</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24209,13 +24209,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>329.0627504260521</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>356.3100788776309</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>381.2557545470806</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
@@ -24251,7 +24251,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>127.3027654569188</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -24285,19 +24285,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>147.0882077936849</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>124.8787130804079</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>132.0247892607701</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>111.7232259685798</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24370,13 +24370,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>123.8676101623384</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>119.8007568283004</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>142.3706881638279</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H25" t="n">
         <v>162.2271725074396</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>192.964362157464</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24497,16 +24497,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>225.7253617132057</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>302.1319672755041</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>323.6206775227822</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>347.1647481942382</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24534,7 +24534,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>111.7232259685798</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24567,13 +24567,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>74.5375429580123</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>174.5444375001908</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -24588,7 +24588,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>183.1163432930735</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24625,7 +24625,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -24655,16 +24655,16 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>286.0221686981429</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>226.5173521291972</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>260.9027071419601</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>200.0893641944063</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24695,7 +24695,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>313.8545109211363</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24734,16 +24734,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>228.7793004236057</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>323.6206775227822</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>344.1108094838382</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24756,16 +24756,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>144.7134224918944</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>147.0882077936849</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>121.8247743700079</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>132.0247892607701</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24780,7 +24780,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24880,16 +24880,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>60.54175205706355</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>151.6731001825387</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>198.3963068423414</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>205.3792369440507</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24929,7 +24929,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>392.7363850309042</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24977,13 +24977,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>323.6206775227822</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>344.1108094838382</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>360.6176474614227</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25005,7 +25005,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>122.502859909153</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25050,16 +25050,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>200.321090886344</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>226.0746919662888</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>180.1526940088467</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>154.2116889873065</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25114,7 +25114,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
         <v>86.16204325169439</v>
@@ -25135,13 +25135,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>266.6780865874667</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>200.0893641944063</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>192.964362157464</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25157,10 +25157,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>332.1166891364521</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>356.3100788776309</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25205,7 +25205,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>197.4755583695005</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25217,7 +25217,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>344.1108094838382</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25284,19 +25284,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>174.5444375001908</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>210.2342346651944</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>226.0746919662888</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>180.1526940088467</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25318,13 +25318,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>120.8136714519383</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>119.8007568283004</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>145.424626874228</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H37" t="n">
         <v>162.2271725074396</v>
@@ -25366,7 +25366,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>260.69873816186</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25388,10 +25388,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>357.1135504688497</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>342.7065392867767</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25439,7 +25439,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>183.3997783916145</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -25454,7 +25454,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>344.1108094838382</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25470,7 +25470,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>147.0882077936849</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25479,7 +25479,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>122.502859909153</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25515,7 +25515,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>74.5375429580123</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25524,7 +25524,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>200.321090886344</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25546,10 +25546,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>154.2116889873065</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>144.680468614397</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25603,7 +25603,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>260.69873816186</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25615,7 +25615,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>192.964362157464</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25631,13 +25631,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>329.0627504260521</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>394.3003924720254</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
@@ -25670,7 +25670,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25688,13 +25688,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>323.6206775227822</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>360.6176474614227</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25752,7 +25752,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>77.59148166841231</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -25761,16 +25761,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>200.321090886344</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>226.0746919662888</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>180.1526940088467</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>154.2116889873065</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25837,13 +25837,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>202.3252982336507</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
-        <v>226.5173521291972</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25852,7 +25852,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>196.018300867864</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>361526.3551190589</v>
+        <v>338648.3274240562</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>361526.3551190589</v>
+        <v>338648.3274240562</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>361526.3551190589</v>
+        <v>338648.3274240562</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>361526.3551190587</v>
+        <v>338648.3274240562</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>361526.3551190589</v>
+        <v>338648.3274240562</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>361526.3551190589</v>
+        <v>338648.3274240562</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>361526.3551190589</v>
+        <v>338648.3274240562</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>361526.3551190588</v>
+        <v>338648.3274240562</v>
       </c>
     </row>
     <row r="16">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48378.33248915088</v>
+        <v>48378.33248915087</v>
       </c>
       <c r="C2" t="n">
-        <v>48378.33248915088</v>
+        <v>48378.33248915087</v>
       </c>
       <c r="D2" t="n">
         <v>48378.33248915088</v>
       </c>
       <c r="E2" t="n">
+        <v>48378.33248915087</v>
+      </c>
+      <c r="F2" t="n">
         <v>48378.33248915088</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>48378.33248915088</v>
+      </c>
+      <c r="H2" t="n">
+        <v>48378.33248915088</v>
+      </c>
+      <c r="I2" t="n">
         <v>48378.33248915087</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
+        <v>48378.33248915088</v>
+      </c>
+      <c r="K2" t="n">
+        <v>48378.33248915088</v>
+      </c>
+      <c r="L2" t="n">
         <v>48378.33248915087</v>
       </c>
-      <c r="H2" t="n">
-        <v>51644.51686548872</v>
-      </c>
-      <c r="I2" t="n">
-        <v>51644.51686548873</v>
-      </c>
-      <c r="J2" t="n">
-        <v>51644.51686548872</v>
-      </c>
-      <c r="K2" t="n">
-        <v>51644.51686548872</v>
-      </c>
-      <c r="L2" t="n">
-        <v>51644.51686548873</v>
-      </c>
       <c r="M2" t="n">
-        <v>51644.51686548872</v>
+        <v>48378.33248915088</v>
       </c>
       <c r="N2" t="n">
-        <v>51644.51686548873</v>
+        <v>48378.33248915088</v>
       </c>
       <c r="O2" t="n">
-        <v>51644.51686548872</v>
+        <v>48378.33248915088</v>
       </c>
       <c r="P2" t="n">
         <v>48378.33248915087</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>6912.585146932151</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8399.016057144248</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="C4" t="n">
-        <v>8399.016057144248</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="D4" t="n">
-        <v>8399.016057144248</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="E4" t="n">
-        <v>8399.016057144248</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="F4" t="n">
-        <v>8399.016057144248</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="G4" t="n">
-        <v>8399.016057144248</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="H4" t="n">
-        <v>8999.791958765192</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="I4" t="n">
-        <v>8999.791958765192</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="J4" t="n">
-        <v>8999.791958765192</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="K4" t="n">
-        <v>8999.791958765192</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="L4" t="n">
-        <v>8999.791958765192</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="M4" t="n">
-        <v>8999.791958765192</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="N4" t="n">
-        <v>8999.791958765192</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="O4" t="n">
-        <v>8999.791958765192</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="P4" t="n">
-        <v>8399.016057144248</v>
+        <v>10750.74055314464</v>
       </c>
     </row>
     <row r="5">
@@ -26485,28 +26485,28 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1557.713704633554</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1557.713704633554</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1557.713704633554</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1557.713704633554</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1557.713704633554</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1557.713704633554</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>1557.713704633554</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1557.713704633554</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6351.716432006637</v>
+        <v>3999.991936006234</v>
       </c>
       <c r="C6" t="n">
-        <v>6351.716432006637</v>
+        <v>3999.991936006234</v>
       </c>
       <c r="D6" t="n">
-        <v>6351.716432006637</v>
+        <v>3999.991936006241</v>
       </c>
       <c r="E6" t="n">
-        <v>39979.31643200664</v>
+        <v>37627.59193600623</v>
       </c>
       <c r="F6" t="n">
-        <v>39979.31643200663</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="G6" t="n">
-        <v>39979.31643200663</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="H6" t="n">
-        <v>34174.42605515783</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="I6" t="n">
-        <v>41087.01120208998</v>
+        <v>37627.59193600623</v>
       </c>
       <c r="J6" t="n">
-        <v>41087.01120208998</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="K6" t="n">
-        <v>41087.01120208998</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="L6" t="n">
-        <v>41087.01120208998</v>
+        <v>37627.59193600623</v>
       </c>
       <c r="M6" t="n">
-        <v>41087.01120208998</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="N6" t="n">
-        <v>41087.01120208998</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="O6" t="n">
-        <v>41087.01120208998</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="P6" t="n">
-        <v>39979.31643200663</v>
+        <v>37627.59193600623</v>
       </c>
     </row>
   </sheetData>
@@ -26805,28 +26805,28 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27027,7 +27027,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -36121,19 +36121,19 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36203,19 +36203,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36282,16 +36282,16 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>24.58512791403967</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -36358,19 +36358,19 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36446,13 +36446,13 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36519,16 +36519,16 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>24.58512791403967</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -36604,13 +36604,13 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36674,16 +36674,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36756,16 +36756,16 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>24.58512791403967</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -36847,7 +36847,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36920,16 +36920,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36993,16 +36993,16 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.58512791403967</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -37072,16 +37072,16 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37151,7 +37151,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37160,13 +37160,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37230,16 +37230,16 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.58512791403967</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -37312,16 +37312,16 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37385,16 +37385,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37467,16 +37467,16 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.58512791403967</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37546,16 +37546,16 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37625,16 +37625,16 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37704,16 +37704,16 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.58512791403967</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -37783,16 +37783,16 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37859,16 +37859,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37941,16 +37941,16 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.58512791403967</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_9.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_9.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -26314,7 +26316,7 @@
         <v>48378.33248915087</v>
       </c>
       <c r="C2" t="n">
-        <v>48378.33248915087</v>
+        <v>48378.33248915088</v>
       </c>
       <c r="D2" t="n">
         <v>48378.33248915088</v>
@@ -26329,10 +26331,10 @@
         <v>48378.33248915088</v>
       </c>
       <c r="H2" t="n">
+        <v>48378.33248915087</v>
+      </c>
+      <c r="I2" t="n">
         <v>48378.33248915088</v>
-      </c>
-      <c r="I2" t="n">
-        <v>48378.33248915087</v>
       </c>
       <c r="J2" t="n">
         <v>48378.33248915088</v>
@@ -26341,7 +26343,7 @@
         <v>48378.33248915088</v>
       </c>
       <c r="L2" t="n">
-        <v>48378.33248915087</v>
+        <v>48378.33248915088</v>
       </c>
       <c r="M2" t="n">
         <v>48378.33248915088</v>
@@ -26353,7 +26355,7 @@
         <v>48378.33248915088</v>
       </c>
       <c r="P2" t="n">
-        <v>48378.33248915087</v>
+        <v>48378.33248915088</v>
       </c>
     </row>
     <row r="3">
@@ -26522,7 +26524,7 @@
         <v>3999.991936006234</v>
       </c>
       <c r="C6" t="n">
-        <v>3999.991936006234</v>
+        <v>3999.991936006241</v>
       </c>
       <c r="D6" t="n">
         <v>3999.991936006241</v>
@@ -26537,10 +26539,10 @@
         <v>37627.59193600624</v>
       </c>
       <c r="H6" t="n">
+        <v>37627.59193600623</v>
+      </c>
+      <c r="I6" t="n">
         <v>37627.59193600624</v>
-      </c>
-      <c r="I6" t="n">
-        <v>37627.59193600623</v>
       </c>
       <c r="J6" t="n">
         <v>37627.59193600624</v>
@@ -26549,7 +26551,7 @@
         <v>37627.59193600624</v>
       </c>
       <c r="L6" t="n">
-        <v>37627.59193600623</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="M6" t="n">
         <v>37627.59193600624</v>
@@ -26561,7 +26563,7 @@
         <v>37627.59193600624</v>
       </c>
       <c r="P6" t="n">
-        <v>37627.59193600623</v>
+        <v>37627.59193600624</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_9.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_2_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>222828.7510725867</v>
+        <v>96522.23669297466</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5413711.842050619</v>
+        <v>5095395.866202925</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22726010.95505212</v>
+        <v>22414029.46712382</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3915832.239858635</v>
+        <v>4047398.41311076</v>
       </c>
     </row>
     <row r="11">
@@ -1888,19 +1888,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.734941765055619</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1982,16 +1982,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>0.9883504387977626</v>
       </c>
     </row>
     <row r="19">
@@ -2055,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.73494176505562</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2098,13 +2098,13 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1.734941765055619</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2177,10 +2177,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.734941765055619</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2222,10 +2222,10 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1.734941765055619</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2329,16 +2329,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
     </row>
     <row r="25">
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>14.31059503474164</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2599,22 +2599,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2684,19 +2684,19 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2803,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2839,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2927,16 +2927,16 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
     </row>
     <row r="32">
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3076,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3164,19 +3164,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
     </row>
     <row r="34">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
     </row>
     <row r="35">
@@ -3274,13 +3274,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3401,16 +3401,16 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3429,16 +3429,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3590,13 +3590,13 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3647,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3757,10 +3757,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,10 +3787,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3878,16 +3878,16 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
     </row>
     <row r="43">
@@ -3900,16 +3900,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>22.56635248423081</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4058,19 +4058,19 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4143,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
     </row>
   </sheetData>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>2.10761545028328</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>4.057652175311736</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>6.007688900340192</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>5.889305893362135</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>5.889305893362135</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>3.899675523983035</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1.910045154603935</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>0.9117113780405386</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>0.9117113780405386</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.9117113780405386</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.9117113780405386</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.9117113780405386</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.9117113780405386</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.9117113780405386</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>0.9117113780405386</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>2.10761545028328</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>3.978862812684323</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>5.928899537712779</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>5.928899537712779</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>5.889305893362135</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>3.899675523983035</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>1.910045154603935</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>0.9117113780405386</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>2.10761545028328</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>4.057652175311736</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>6.007688900340192</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>6.126469833392123</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>4.136839464013024</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>2.147209094633924</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>3.899675523983035</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>3.899675523983035</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>3.899675523983035</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>3.899675523983035</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>3.899675523983035</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>3.899675523983035</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.910045154603935</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1.910045154603935</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>2.028826087655867</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>3.978862812684323</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>5.928899537712779</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>5.889305893362135</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>5.889305893362135</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>3.899675523983035</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>3.899675523983035</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>3.899675523983035</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>3.899675523983035</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>3.899675523983035</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>3.899675523983035</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>3.899675523983035</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>3.899675523983035</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>3.899675523983035</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>3.899675523983035</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>3.899675523983035</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1.910045154603935</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>2.10761545028328</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>3.978862812684323</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>5.928899537712779</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>5.928899537712779</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>5.928899537712779</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>5.889305893362135</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>3.899675523983035</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>3.899675523983035</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>2.10761545028328</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>4.057652175311736</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>6.007688900340192</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>7.878936262741234</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.889305893362135</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>3.899675523983035</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.910045154603935</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>0.1575787252548247</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>26.7539638887914</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>16.66234852056432</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>26.7539638887914</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>52.75142891054807</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>26.7539638887914</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>52.75142891054807</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>54.62267627294912</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
     </row>
   </sheetData>
@@ -9166,16 +9166,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>220.0898510449805</v>
+        <v>222.0595851106659</v>
       </c>
       <c r="L17" t="n">
-        <v>235.7664149699872</v>
+        <v>237.7361490356726</v>
       </c>
       <c r="M17" t="n">
-        <v>230.3462332272727</v>
+        <v>232.315967292958</v>
       </c>
       <c r="N17" t="n">
-        <v>229.4130635965909</v>
+        <v>231.3032124475011</v>
       </c>
       <c r="O17" t="n">
         <v>230.0982114216867</v>
@@ -9245,19 +9245,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>139.8111730400443</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>140.4445286307843</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>144.1037679877036</v>
       </c>
       <c r="N18" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>144.5659785101298</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -9327,16 +9327,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L19" t="n">
-        <v>134.8846762812383</v>
+        <v>136.8544103469236</v>
       </c>
       <c r="M19" t="n">
-        <v>138.9257839476051</v>
+        <v>140.8955180132904</v>
       </c>
       <c r="N19" t="n">
-        <v>127.6855444652332</v>
+        <v>129.6552785309185</v>
       </c>
       <c r="O19" t="n">
-        <v>138.4565384518428</v>
+        <v>140.3466873027529</v>
       </c>
       <c r="P19" t="n">
         <v>135.0065633140411</v>
@@ -9409,16 +9409,16 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M20" t="n">
-        <v>230.3462332272727</v>
+        <v>232.2363820781829</v>
       </c>
       <c r="N20" t="n">
-        <v>229.4130635965909</v>
+        <v>231.3827976622762</v>
       </c>
       <c r="O20" t="n">
-        <v>230.0982114216867</v>
+        <v>232.067945487372</v>
       </c>
       <c r="P20" t="n">
-        <v>231.2329957552695</v>
+        <v>233.2027298209549</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9485,13 +9485,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>140.5241138455595</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>144.0241827729285</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>133.3114461490186</v>
       </c>
       <c r="O21" t="n">
         <v>142.5962444444444</v>
@@ -9500,7 +9500,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>141.9515081517068</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9564,16 +9564,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L22" t="n">
-        <v>134.8846762812383</v>
+        <v>136.8544103469236</v>
       </c>
       <c r="M22" t="n">
-        <v>138.9257839476051</v>
+        <v>140.8955180132904</v>
       </c>
       <c r="N22" t="n">
-        <v>127.6855444652332</v>
+        <v>129.6552785309185</v>
       </c>
       <c r="O22" t="n">
-        <v>138.4565384518428</v>
+        <v>140.3466873027529</v>
       </c>
       <c r="P22" t="n">
         <v>135.0065633140411</v>
@@ -9646,16 +9646,16 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M23" t="n">
-        <v>230.3462332272727</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N23" t="n">
-        <v>229.4130635965909</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O23" t="n">
-        <v>230.0982114216867</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P23" t="n">
-        <v>231.2329957552695</v>
+        <v>257.7082725202193</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9719,16 +9719,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>165.029656544824</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>158.9317373436494</v>
       </c>
       <c r="O24" t="n">
         <v>142.5962444444444</v>
@@ -9801,16 +9801,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L25" t="n">
-        <v>134.8846762812383</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M25" t="n">
-        <v>138.9257839476051</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N25" t="n">
-        <v>127.6855444652332</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O25" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P25" t="n">
         <v>135.0065633140411</v>
@@ -9877,13 +9877,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>220.0898510449805</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L26" t="n">
-        <v>235.7664149699872</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M26" t="n">
-        <v>230.3462332272727</v>
+        <v>256.8215099922226</v>
       </c>
       <c r="N26" t="n">
         <v>229.4130635965909</v>
@@ -9892,7 +9892,7 @@
         <v>230.0982114216867</v>
       </c>
       <c r="P26" t="n">
-        <v>231.2329957552695</v>
+        <v>258.8230210155857</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9959,16 +9959,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>158.9317373436494</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>169.0715212093943</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -10038,16 +10038,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L28" t="n">
-        <v>134.8846762812383</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
-        <v>138.9257839476051</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N28" t="n">
-        <v>127.6855444652332</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O28" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P28" t="n">
         <v>135.0065633140411</v>
@@ -10117,16 +10117,16 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L29" t="n">
-        <v>235.7664149699872</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M29" t="n">
-        <v>230.3462332272727</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N29" t="n">
-        <v>229.4130635965909</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O29" t="n">
-        <v>230.0982114216867</v>
+        <v>256.5734881866366</v>
       </c>
       <c r="P29" t="n">
         <v>231.2329957552695</v>
@@ -10193,10 +10193,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>165.029656544824</v>
       </c>
       <c r="M30" t="n">
         <v>142.1340339220183</v>
@@ -10205,10 +10205,10 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>170.1862697047606</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10275,16 +10275,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
-        <v>134.8846762812383</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M31" t="n">
-        <v>138.9257839476051</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N31" t="n">
-        <v>127.6855444652332</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O31" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P31" t="n">
         <v>135.0065633140411</v>
@@ -10354,16 +10354,16 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L32" t="n">
-        <v>235.7664149699872</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M32" t="n">
-        <v>230.3462332272727</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N32" t="n">
-        <v>229.4130635965909</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O32" t="n">
-        <v>230.0982114216867</v>
+        <v>256.5734881866366</v>
       </c>
       <c r="P32" t="n">
         <v>231.2329957552695</v>
@@ -10433,19 +10433,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>168.6093106869681</v>
       </c>
       <c r="N33" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>170.1862697047606</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10512,16 +10512,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
-        <v>134.8846762812383</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M34" t="n">
-        <v>138.9257839476051</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N34" t="n">
-        <v>127.6855444652332</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O34" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P34" t="n">
         <v>135.0065633140411</v>
@@ -10588,16 +10588,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>220.0898510449805</v>
+        <v>246.5651278099304</v>
       </c>
       <c r="L35" t="n">
-        <v>235.7664149699872</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M35" t="n">
-        <v>230.3462332272727</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N35" t="n">
-        <v>229.4130635965909</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O35" t="n">
         <v>230.0982114216867</v>
@@ -10673,16 +10673,16 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>168.6093106869681</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>158.9317373436494</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>170.1862697047606</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10749,16 +10749,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L37" t="n">
-        <v>134.8846762812383</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M37" t="n">
-        <v>138.9257839476051</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N37" t="n">
-        <v>127.6855444652332</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O37" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P37" t="n">
         <v>135.0065633140411</v>
@@ -10825,19 +10825,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>220.0898510449805</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L38" t="n">
-        <v>235.7664149699872</v>
+        <v>262.2416917349371</v>
       </c>
       <c r="M38" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N38" t="n">
-        <v>229.4130635965909</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O38" t="n">
-        <v>230.0982114216867</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P38" t="n">
         <v>231.2329957552695</v>
@@ -10904,16 +10904,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>157.8169888482831</v>
       </c>
       <c r="O39" t="n">
         <v>142.5962444444444</v>
@@ -10986,16 +10986,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L40" t="n">
-        <v>134.8846762812383</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M40" t="n">
-        <v>138.9257839476051</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N40" t="n">
-        <v>127.6855444652332</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O40" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P40" t="n">
         <v>135.0065633140411</v>
@@ -11068,16 +11068,16 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M41" t="n">
-        <v>230.3462332272727</v>
+        <v>255.9665244219036</v>
       </c>
       <c r="N41" t="n">
-        <v>229.4130635965909</v>
+        <v>255.0333547912217</v>
       </c>
       <c r="O41" t="n">
-        <v>230.0982114216867</v>
+        <v>255.7185026163176</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>255.8181236693092</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>162.4265668883987</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
@@ -11150,13 +11150,13 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>156.9620032779641</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>168.2165356390753</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>159.5946986089611</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11223,16 +11223,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L43" t="n">
-        <v>134.8846762812383</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M43" t="n">
-        <v>138.9257839476051</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N43" t="n">
-        <v>127.6855444652332</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O43" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P43" t="n">
         <v>135.0065633140411</v>
@@ -11302,16 +11302,16 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
-        <v>235.7664149699872</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M44" t="n">
-        <v>230.3462332272727</v>
+        <v>255.9665244219036</v>
       </c>
       <c r="N44" t="n">
-        <v>229.4130635965909</v>
+        <v>255.0333547912217</v>
       </c>
       <c r="O44" t="n">
-        <v>230.0982114216867</v>
+        <v>254.6833393357264</v>
       </c>
       <c r="P44" t="n">
         <v>231.2329957552695</v>
@@ -11378,10 +11378,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>163.4617301689898</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>163.1395076939139</v>
       </c>
       <c r="M45" t="n">
         <v>142.1340339220183</v>
@@ -11390,10 +11390,10 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>168.2165356390753</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>159.5946986089611</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -11460,16 +11460,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L46" t="n">
-        <v>134.8846762812383</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M46" t="n">
-        <v>138.9257839476051</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N46" t="n">
-        <v>127.6855444652332</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O46" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P46" t="n">
         <v>135.0065633140411</v>
@@ -23776,19 +23776,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>8.020965148859496</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>207.05033552056</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>221.126115498446</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>249.6107111427809</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23834,7 +23834,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23870,16 +23870,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>230.83085308374</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>249.7252490952343</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>203.8032511377922</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>204.6943453385066</v>
       </c>
     </row>
     <row r="19">
@@ -23943,16 +23943,16 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>226.2106476632259</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>284.3492952908056</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>250.1679092581427</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>284.5532642709057</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23986,13 +23986,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>337.5050680500818</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>10.2143475895569</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>207.05033552056</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>249.3759188421512</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24065,10 +24065,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>110.2657101708112</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>87.66169108635945</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24110,10 +24110,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>249.7252490952343</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>203.8032511377922</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24174,16 +24174,16 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>175.3236573114842</v>
       </c>
       <c r="S22" t="n">
-        <v>224.0165980369723</v>
+        <v>222.0468639712869</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9455894282815</v>
+        <v>225.9758553625962</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3190293564909</v>
+        <v>284.5840875914353</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24217,16 +24217,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>382.574751492425</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>387.7127122548189</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>311.884776855451</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>182.8858643100898</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>142.2318894005809</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24332,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>72.56780889232699</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>144.0931458435217</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -24353,7 +24353,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>178.0926705169882</v>
       </c>
     </row>
     <row r="25">
@@ -24411,22 +24411,22 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>149.7033661168533</v>
       </c>
       <c r="S25" t="n">
-        <v>224.0165980369723</v>
+        <v>196.4265727766561</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3190293564909</v>
+        <v>263.8702699959815</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>258.9329730762748</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24463,7 +24463,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>196.1652945356643</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24487,22 +24487,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>122.2790926808335</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>195.5058243038152</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>300.1622332098187</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24572,19 +24572,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>144.0931458435217</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>175.8634344455351</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>205.2105618891091</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>224.1049579006035</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24618,10 +24618,10 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
-        <v>162.2271725074396</v>
+        <v>134.6371472471234</v>
       </c>
       <c r="I28" t="n">
-        <v>155.4504749272583</v>
+        <v>127.8604496669421</v>
       </c>
       <c r="J28" t="n">
         <v>93.35918011667277</v>
@@ -24648,10 +24648,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>154.8446320166601</v>
       </c>
       <c r="S28" t="n">
-        <v>224.0165980369723</v>
+        <v>196.4265727766561</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24691,7 +24691,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>382.574751492425</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24727,13 +24727,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>122.2790926808335</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>181.4300443259292</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>195.5058243038152</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24815,16 +24815,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>201.6400878316884</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>205.2105618891091</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>224.1049579006035</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>178.1829599431613</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24846,10 +24846,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>123.9852032860598</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>117.8310227626151</v>
       </c>
       <c r="G31" t="n">
         <v>167.9909793584588</v>
@@ -24903,10 +24903,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>198.119630128721</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>190.9946280917787</v>
       </c>
     </row>
     <row r="32">
@@ -24928,7 +24928,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>382.574751492425</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24964,13 +24964,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>122.2790926808335</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>181.4300443259292</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>195.5058243038152</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -25052,19 +25052,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>198.3513568206587</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>208.4992929001388</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>178.1829599431613</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>178.0926705169882</v>
       </c>
     </row>
     <row r="34">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>152.2419549216212</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>144.7980617381184</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25140,10 +25140,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>198.119630128721</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>190.9946280917787</v>
       </c>
     </row>
     <row r="35">
@@ -25162,13 +25162,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>357.6290758229753</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>379.2860204813953</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>387.7127122548189</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25201,7 +25201,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>122.2790926808335</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25289,16 +25289,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>198.3513568206587</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>205.2105618891091</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>224.1049579006035</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>181.471690954191</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25317,16 +25317,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>126.1667136577029</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>118.843937386253</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>117.8310227626151</v>
       </c>
       <c r="G37" t="n">
-        <v>167.9909793584588</v>
+        <v>140.4009540981426</v>
       </c>
       <c r="H37" t="n">
         <v>162.2271725074396</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>355.1438164031645</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25441,13 +25441,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>184.7187753369589</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>195.5058243038152</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>223.7556276475204</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25478,13 +25478,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>133.3437862061145</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>109.7534919028945</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>72.56780889232699</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25535,7 +25535,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>178.1829599431613</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25596,16 +25596,16 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>149.7033661168533</v>
       </c>
       <c r="S40" t="n">
-        <v>224.0165980369723</v>
+        <v>196.4265727766561</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>205.4968300677721</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3190293564909</v>
+        <v>258.7290040961748</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25645,10 +25645,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>316.9084496315363</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>184.8555983757751</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25675,10 +25675,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>124.2488267465189</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>183.3997783916145</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
@@ -25766,16 +25766,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>210.2342346651944</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>226.0746919662888</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>180.1526940088467</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>180.0624045826735</v>
       </c>
     </row>
     <row r="43">
@@ -25788,16 +25788,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>144.680468614397</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>122.9951818235815</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>120.8136714519383</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>119.8007568283004</v>
       </c>
       <c r="G43" t="n">
         <v>167.9909793584588</v>
@@ -25885,7 +25885,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>184.8555983757751</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -25912,13 +25912,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>124.2488267465189</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>183.3997783916145</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>200.5294970799005</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25946,19 +25946,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>147.0882077936849</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>121.8247743700079</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>119.4489211987531</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>114.7771646789798</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>157.2656276977065</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26031,10 +26031,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>120.8136714519383</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>119.8007568283004</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>192.964362157464</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>338648.3274240562</v>
+        <v>340407.2313398705</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>338648.3274240562</v>
+        <v>340407.2313398706</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>338648.3274240562</v>
+        <v>363215.1880793229</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>338648.3274240562</v>
+        <v>363215.188079323</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>338648.3274240562</v>
+        <v>363215.1880793229</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>338648.3274240562</v>
+        <v>363215.1880793229</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>338648.3274240562</v>
+        <v>363215.1880793229</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>338648.3274240562</v>
+        <v>363215.188079323</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>338648.3274240562</v>
+        <v>361526.3551190589</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>338648.3274240562</v>
+        <v>361526.3551190589</v>
       </c>
     </row>
   </sheetData>
@@ -26328,34 +26328,34 @@
         <v>48378.33248915088</v>
       </c>
       <c r="G2" t="n">
-        <v>48378.33248915088</v>
+        <v>48629.44261830624</v>
       </c>
       <c r="H2" t="n">
-        <v>48378.33248915087</v>
+        <v>48629.44261830623</v>
       </c>
       <c r="I2" t="n">
-        <v>48378.33248915088</v>
+        <v>51885.6233062447</v>
       </c>
       <c r="J2" t="n">
-        <v>48378.33248915088</v>
+        <v>51885.62330624471</v>
       </c>
       <c r="K2" t="n">
-        <v>48378.33248915088</v>
+        <v>51885.6233062447</v>
       </c>
       <c r="L2" t="n">
-        <v>48378.33248915088</v>
+        <v>51885.6233062447</v>
       </c>
       <c r="M2" t="n">
-        <v>48378.33248915088</v>
+        <v>51885.6233062447</v>
       </c>
       <c r="N2" t="n">
-        <v>48378.33248915088</v>
+        <v>51885.6233062447</v>
       </c>
       <c r="O2" t="n">
-        <v>48378.33248915088</v>
+        <v>51644.51686548873</v>
       </c>
       <c r="P2" t="n">
-        <v>48378.33248915088</v>
+        <v>51644.51686548874</v>
       </c>
     </row>
     <row r="3">
@@ -26380,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>539.8745613933579</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>6812.973454767425</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26432,34 +26432,34 @@
         <v>10750.74055314464</v>
       </c>
       <c r="G4" t="n">
-        <v>10750.74055314464</v>
+        <v>10809.3838736743</v>
       </c>
       <c r="H4" t="n">
-        <v>10750.74055314464</v>
+        <v>10809.3838736743</v>
       </c>
       <c r="I4" t="n">
-        <v>10750.74055314464</v>
+        <v>11569.82013495752</v>
       </c>
       <c r="J4" t="n">
-        <v>10750.74055314464</v>
+        <v>11569.82013495752</v>
       </c>
       <c r="K4" t="n">
-        <v>10750.74055314464</v>
+        <v>11569.82013495752</v>
       </c>
       <c r="L4" t="n">
-        <v>10750.74055314464</v>
+        <v>11569.82013495752</v>
       </c>
       <c r="M4" t="n">
-        <v>10750.74055314464</v>
+        <v>11569.82013495752</v>
       </c>
       <c r="N4" t="n">
-        <v>10750.74055314464</v>
+        <v>11569.82013495752</v>
       </c>
       <c r="O4" t="n">
-        <v>10750.74055314464</v>
+        <v>11513.51303840759</v>
       </c>
       <c r="P4" t="n">
-        <v>10750.74055314464</v>
+        <v>11513.51303840759</v>
       </c>
     </row>
     <row r="5">
@@ -26484,34 +26484,34 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>119.7598311936668</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>119.7598311936668</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1677.473535827221</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1677.473535827221</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1677.473535827221</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1677.473535827221</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1677.473535827221</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1677.473535827221</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1557.713704633554</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1557.713704633554</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3999.991936006234</v>
+        <v>-11150.68203402854</v>
       </c>
       <c r="C6" t="n">
-        <v>3999.991936006241</v>
+        <v>-11150.68203402852</v>
       </c>
       <c r="D6" t="n">
-        <v>3999.991936006241</v>
+        <v>-11150.68203402852</v>
       </c>
       <c r="E6" t="n">
-        <v>37627.59193600623</v>
+        <v>22476.91796597147</v>
       </c>
       <c r="F6" t="n">
-        <v>37627.59193600624</v>
+        <v>22476.91796597148</v>
       </c>
       <c r="G6" t="n">
-        <v>37627.59193600624</v>
+        <v>22037.65150747186</v>
       </c>
       <c r="H6" t="n">
-        <v>37627.59193600623</v>
+        <v>22577.52606886521</v>
       </c>
       <c r="I6" t="n">
-        <v>37627.59193600624</v>
+        <v>17064.38119033485</v>
       </c>
       <c r="J6" t="n">
-        <v>37627.59193600624</v>
+        <v>23877.35464510228</v>
       </c>
       <c r="K6" t="n">
-        <v>37627.59193600624</v>
+        <v>23877.35464510228</v>
       </c>
       <c r="L6" t="n">
-        <v>37627.59193600624</v>
+        <v>23877.35464510228</v>
       </c>
       <c r="M6" t="n">
-        <v>37627.59193600624</v>
+        <v>23877.35464510228</v>
       </c>
       <c r="N6" t="n">
-        <v>37627.59193600624</v>
+        <v>23877.35464510228</v>
       </c>
       <c r="O6" t="n">
-        <v>37627.59193600624</v>
+        <v>23785.52552756147</v>
       </c>
       <c r="P6" t="n">
-        <v>37627.59193600624</v>
+        <v>23785.52552756148</v>
       </c>
     </row>
   </sheetData>
@@ -26804,34 +26804,34 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
     </row>
   </sheetData>
@@ -27026,13 +27026,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -35886,16 +35886,16 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1.890148850910144</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -35965,19 +35965,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.890148850910144</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36047,16 +36047,16 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.890148850910144</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -36129,16 +36129,16 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.890148850910144</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36205,13 +36205,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1.890148850910144</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36284,16 +36284,16 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.890148850910144</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -36366,16 +36366,16 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36439,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36521,16 +36521,16 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -36612,7 +36612,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36679,16 +36679,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36758,16 +36758,16 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36837,16 +36837,16 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36913,10 +36913,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36925,10 +36925,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36995,16 +36995,16 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -37074,16 +37074,16 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37153,19 +37153,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37232,16 +37232,16 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -37308,16 +37308,16 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37469,16 +37469,16 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37545,19 +37545,19 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37624,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37706,16 +37706,16 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -37788,16 +37788,16 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37870,13 +37870,13 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37943,16 +37943,16 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -38022,16 +38022,16 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38098,10 +38098,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38110,10 +38110,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38180,16 +38180,16 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
